--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV49"/>
+  <dimension ref="A1:BY49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,6 +799,21 @@
           <t>validity</t>
         </is>
       </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>highest_elevation</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>highest_elevation_lat</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>highest_elevation_lng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -859,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="V2" t="n">
         <v>45.92204301075269</v>
@@ -973,16 +988,16 @@
         <v>1.52258064516129</v>
       </c>
       <c r="BF2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BG2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ2" t="n">
         <v>2.387096774193548</v>
@@ -991,13 +1006,13 @@
         <v>26</v>
       </c>
       <c r="BL2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="n">
         <v>2</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0</v>
       </c>
       <c r="BO2" t="n">
         <v>239.0322580645161</v>
@@ -1026,6 +1041,15 @@
       </c>
       <c r="BV2" t="b">
         <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="3">
@@ -1087,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U3" t="n">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="V3" t="n">
         <v>48.76344086021506</v>
@@ -1201,31 +1225,31 @@
         <v>2.3</v>
       </c>
       <c r="BF3" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3" t="n">
         <v>4.193548387096774</v>
       </c>
       <c r="BK3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BL3" t="n">
         <v>5</v>
       </c>
       <c r="BM3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BN3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BO3" t="n">
         <v>178.4838709677419</v>
@@ -1254,6 +1278,15 @@
       </c>
       <c r="BV3" t="b">
         <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="4">
@@ -1429,16 +1462,16 @@
         <v>3.357142857142857</v>
       </c>
       <c r="BF4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BG4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ4" t="n">
         <v>4.285714285714286</v>
@@ -1447,13 +1480,13 @@
         <v>17</v>
       </c>
       <c r="BL4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BM4" t="n">
         <v>2</v>
       </c>
       <c r="BN4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO4" t="n">
         <v>235.2142857142857</v>
@@ -1482,6 +1515,15 @@
       </c>
       <c r="BV4" t="b">
         <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="5">
@@ -1657,16 +1699,16 @@
         <v>4.507142857142858</v>
       </c>
       <c r="BF5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="BG5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ5" t="n">
         <v>4.964285714285714</v>
@@ -1678,10 +1720,10 @@
         <v>2</v>
       </c>
       <c r="BM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN5" t="n">
         <v>6</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>1</v>
       </c>
       <c r="BO5" t="n">
         <v>182.1428571428571</v>
@@ -1710,6 +1752,15 @@
       </c>
       <c r="BV5" t="b">
         <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="6">
@@ -1885,13 +1936,13 @@
         <v>2.219354838709677</v>
       </c>
       <c r="BF6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BG6" t="n">
         <v>0</v>
       </c>
       <c r="BH6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI6" t="n">
         <v>0</v>
@@ -1903,10 +1954,10 @@
         <v>24</v>
       </c>
       <c r="BL6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BN6" t="n">
         <v>3</v>
@@ -1938,6 +1989,15 @@
       </c>
       <c r="BV6" t="b">
         <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="7">
@@ -1999,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="V7" t="n">
         <v>54.44758064516129</v>
@@ -2113,10 +2173,10 @@
         <v>2.532258064516129</v>
       </c>
       <c r="BF7" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BG7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -2128,16 +2188,16 @@
         <v>4.548387096774194</v>
       </c>
       <c r="BK7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BL7" t="n">
         <v>9</v>
       </c>
       <c r="BM7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN7" t="n">
         <v>3</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
       </c>
       <c r="BO7" t="n">
         <v>206.8064516129032</v>
@@ -2166,6 +2226,15 @@
       </c>
       <c r="BV7" t="b">
         <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="8">
@@ -2341,13 +2410,13 @@
         <v>1.99</v>
       </c>
       <c r="BF8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI8" t="n">
         <v>0</v>
@@ -2356,13 +2425,13 @@
         <v>2.5</v>
       </c>
       <c r="BK8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BL8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -2394,6 +2463,15 @@
       </c>
       <c r="BV8" t="b">
         <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="9">
@@ -2569,13 +2647,13 @@
         <v>3.32</v>
       </c>
       <c r="BF9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BG9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI9" t="n">
         <v>0</v>
@@ -2584,16 +2662,16 @@
         <v>4.966666666666667</v>
       </c>
       <c r="BK9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BL9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BM9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BN9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO9" t="n">
         <v>192</v>
@@ -2622,6 +2700,15 @@
       </c>
       <c r="BV9" t="b">
         <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="10">
@@ -2797,13 +2884,13 @@
         <v>3.267741935483871</v>
       </c>
       <c r="BF10" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="BG10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI10" t="n">
         <v>0</v>
@@ -2812,16 +2899,16 @@
         <v>4.548387096774194</v>
       </c>
       <c r="BK10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BL10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BM10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BN10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO10" t="n">
         <v>207.3548387096774</v>
@@ -2850,6 +2937,15 @@
       </c>
       <c r="BV10" t="b">
         <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="11">
@@ -3025,10 +3121,10 @@
         <v>1.429032258064516</v>
       </c>
       <c r="BF11" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BG11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
@@ -3043,10 +3139,10 @@
         <v>23</v>
       </c>
       <c r="BL11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BM11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BN11" t="n">
         <v>2</v>
@@ -3078,6 +3174,15 @@
       </c>
       <c r="BV11" t="b">
         <v>0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="12">
@@ -3253,31 +3358,31 @@
         <v>4.590000000000001</v>
       </c>
       <c r="BF12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="BG12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ12" t="n">
         <v>5.5</v>
       </c>
       <c r="BK12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BL12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN12" t="n">
         <v>4</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>1</v>
       </c>
       <c r="BO12" t="n">
         <v>221.6666666666667</v>
@@ -3306,6 +3411,15 @@
       </c>
       <c r="BV12" t="b">
         <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="13">
@@ -3481,13 +3595,13 @@
         <v>1.883333333333333</v>
       </c>
       <c r="BF13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BG13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI13" t="n">
         <v>0</v>
@@ -3496,16 +3610,16 @@
         <v>3.733333333333333</v>
       </c>
       <c r="BK13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BL13" t="n">
         <v>3</v>
       </c>
       <c r="BM13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO13" t="n">
         <v>191.2</v>
@@ -3534,6 +3648,15 @@
       </c>
       <c r="BV13" t="b">
         <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="14">
@@ -3709,13 +3832,13 @@
         <v>2.196774193548387</v>
       </c>
       <c r="BF14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -3724,16 +3847,16 @@
         <v>4.096774193548387</v>
       </c>
       <c r="BK14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BL14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM14" t="n">
         <v>3</v>
       </c>
-      <c r="BM14" t="n">
-        <v>4</v>
-      </c>
       <c r="BN14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO14" t="n">
         <v>209.741935483871</v>
@@ -3762,6 +3885,15 @@
       </c>
       <c r="BV14" t="b">
         <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="15">
@@ -3937,13 +4069,13 @@
         <v>2.551612903225807</v>
       </c>
       <c r="BF15" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="BG15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -3952,16 +4084,16 @@
         <v>2.419354838709677</v>
       </c>
       <c r="BK15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BL15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN15" t="n">
         <v>1</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>0</v>
       </c>
       <c r="BO15" t="n">
         <v>192.0967741935484</v>
@@ -3990,6 +4122,15 @@
       </c>
       <c r="BV15" t="b">
         <v>0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="16">
@@ -4165,7 +4306,7 @@
         <v>2.354838709677419</v>
       </c>
       <c r="BF16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BG16" t="n">
         <v>0</v>
@@ -4174,22 +4315,22 @@
         <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ16" t="n">
         <v>2.548387096774194</v>
       </c>
       <c r="BK16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BL16" t="n">
         <v>5</v>
       </c>
       <c r="BM16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN16" t="n">
         <v>2</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>0</v>
       </c>
       <c r="BO16" t="n">
         <v>253.5483870967742</v>
@@ -4218,6 +4359,15 @@
       </c>
       <c r="BV16" t="b">
         <v>0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="17">
@@ -4393,10 +4543,10 @@
         <v>1.425806451612903</v>
       </c>
       <c r="BF17" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BG17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH17" t="n">
         <v>0</v>
@@ -4408,16 +4558,16 @@
         <v>2.838709677419355</v>
       </c>
       <c r="BK17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BL17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM17" t="n">
         <v>2</v>
       </c>
       <c r="BN17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO17" t="n">
         <v>188.258064516129</v>
@@ -4446,6 +4596,15 @@
       </c>
       <c r="BV17" t="b">
         <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="18">
@@ -4621,13 +4780,13 @@
         <v>2.083333333333333</v>
       </c>
       <c r="BF18" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BG18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI18" t="n">
         <v>0</v>
@@ -4639,10 +4798,10 @@
         <v>26</v>
       </c>
       <c r="BL18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN18" t="n">
         <v>2</v>
@@ -4674,6 +4833,15 @@
       </c>
       <c r="BV18" t="b">
         <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="19">
@@ -4849,31 +5017,31 @@
         <v>4.383333333333334</v>
       </c>
       <c r="BF19" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="BG19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ19" t="n">
         <v>4.366666666666666</v>
       </c>
       <c r="BK19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM19" t="n">
         <v>3</v>
       </c>
-      <c r="BM19" t="n">
-        <v>1</v>
-      </c>
       <c r="BN19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO19" t="n">
         <v>162.3666666666667</v>
@@ -4902,6 +5070,15 @@
       </c>
       <c r="BV19" t="b">
         <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="20">
@@ -5092,13 +5269,13 @@
         <v>1.709677419354839</v>
       </c>
       <c r="BK20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BL20" t="n">
         <v>4</v>
       </c>
       <c r="BM20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN20" t="n">
         <v>0</v>
@@ -5130,6 +5307,15 @@
       </c>
       <c r="BV20" t="b">
         <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="21">
@@ -5305,31 +5491,31 @@
         <v>3.325806451612903</v>
       </c>
       <c r="BF21" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BG21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH21" t="n">
         <v>0</v>
       </c>
       <c r="BI21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ21" t="n">
         <v>4.354838709677419</v>
       </c>
       <c r="BK21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BL21" t="n">
         <v>3</v>
       </c>
       <c r="BM21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN21" t="n">
         <v>5</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>1</v>
       </c>
       <c r="BO21" t="n">
         <v>202.7096774193548</v>
@@ -5358,6 +5544,15 @@
       </c>
       <c r="BV21" t="b">
         <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="22">
@@ -5533,28 +5728,28 @@
         <v>2.833333333333333</v>
       </c>
       <c r="BF22" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BG22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ22" t="n">
         <v>3.266666666666667</v>
       </c>
       <c r="BK22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BL22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BM22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN22" t="n">
         <v>2</v>
@@ -5586,6 +5781,15 @@
       </c>
       <c r="BV22" t="b">
         <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="23">
@@ -5761,13 +5965,13 @@
         <v>2.556666666666667</v>
       </c>
       <c r="BF23" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BG23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI23" t="n">
         <v>0</v>
@@ -5779,13 +5983,13 @@
         <v>22</v>
       </c>
       <c r="BL23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN23" t="n">
         <v>2</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>0</v>
       </c>
       <c r="BO23" t="n">
         <v>195.7</v>
@@ -5814,6 +6018,15 @@
       </c>
       <c r="BV23" t="b">
         <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="24">
@@ -5989,31 +6202,31 @@
         <v>3.316129032258064</v>
       </c>
       <c r="BF24" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="BG24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
       </c>
       <c r="BI24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ24" t="n">
         <v>4.580645161290323</v>
       </c>
       <c r="BK24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BL24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN24" t="n">
         <v>5</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>5</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>0</v>
       </c>
       <c r="BO24" t="n">
         <v>215.8064516129032</v>
@@ -6042,6 +6255,15 @@
       </c>
       <c r="BV24" t="b">
         <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="25">
@@ -6103,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U25" t="n">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="V25" t="n">
         <v>47.24462365591398</v>
@@ -6217,16 +6439,16 @@
         <v>4.064516129032258</v>
       </c>
       <c r="BF25" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ25" t="n">
         <v>4.483870967741935</v>
@@ -6235,13 +6457,13 @@
         <v>23</v>
       </c>
       <c r="BL25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM25" t="n">
         <v>1</v>
       </c>
       <c r="BN25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO25" t="n">
         <v>181.741935483871</v>
@@ -6270,6 +6492,15 @@
       </c>
       <c r="BV25" t="b">
         <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>417</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>42.75508440000001</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>-72.14897119999999</v>
       </c>
     </row>
     <row r="26">
@@ -6445,13 +6676,13 @@
         <v>1.616129032258065</v>
       </c>
       <c r="BF26" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BG26" t="n">
         <v>0</v>
       </c>
       <c r="BH26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI26" t="n">
         <v>0</v>
@@ -6460,16 +6691,16 @@
         <v>2.225806451612903</v>
       </c>
       <c r="BK26" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BL26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN26" t="n">
         <v>2</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>0</v>
       </c>
       <c r="BO26" t="n">
         <v>241</v>
@@ -6498,6 +6729,15 @@
       </c>
       <c r="BV26" t="b">
         <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="27">
@@ -6673,31 +6913,31 @@
         <v>3.029032258064516</v>
       </c>
       <c r="BF27" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BG27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH27" t="n">
         <v>0</v>
       </c>
       <c r="BI27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ27" t="n">
         <v>4.580645161290323</v>
       </c>
       <c r="BK27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BL27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM27" t="n">
         <v>3</v>
       </c>
       <c r="BN27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BO27" t="n">
         <v>168.0322580645161</v>
@@ -6726,6 +6966,15 @@
       </c>
       <c r="BV27" t="b">
         <v>0</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="28">
@@ -6901,31 +7150,31 @@
         <v>4.564285714285714</v>
       </c>
       <c r="BF28" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BG28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ28" t="n">
         <v>5</v>
       </c>
       <c r="BK28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BL28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BM28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BN28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BO28" t="n">
         <v>255.9285714285714</v>
@@ -6954,6 +7203,15 @@
       </c>
       <c r="BV28" t="b">
         <v>0</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="29">
@@ -7129,31 +7387,31 @@
         <v>4.492857142857143</v>
       </c>
       <c r="BF29" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="BG29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ29" t="n">
         <v>5.071428571428571</v>
       </c>
       <c r="BK29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BL29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM29" t="n">
         <v>5</v>
       </c>
       <c r="BN29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BO29" t="n">
         <v>179.75</v>
@@ -7182,6 +7440,15 @@
       </c>
       <c r="BV29" t="b">
         <v>0</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="30">
@@ -7357,25 +7624,25 @@
         <v>2.393548387096774</v>
       </c>
       <c r="BF30" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BG30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ30" t="n">
         <v>3.741935483870968</v>
       </c>
       <c r="BK30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BL30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM30" t="n">
         <v>1</v>
@@ -7410,6 +7677,15 @@
       </c>
       <c r="BV30" t="b">
         <v>0</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="31">
@@ -7585,10 +7861,10 @@
         <v>2.641935483870968</v>
       </c>
       <c r="BF31" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BG31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH31" t="n">
         <v>0</v>
@@ -7600,13 +7876,13 @@
         <v>3.580645161290323</v>
       </c>
       <c r="BK31" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BL31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BM31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN31" t="n">
         <v>0</v>
@@ -7638,6 +7914,15 @@
       </c>
       <c r="BV31" t="b">
         <v>0</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="32">
@@ -7813,10 +8098,10 @@
         <v>1.73</v>
       </c>
       <c r="BF32" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BG32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH32" t="n">
         <v>0</v>
@@ -7828,10 +8113,10 @@
         <v>1.9</v>
       </c>
       <c r="BK32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BL32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BM32" t="n">
         <v>2</v>
@@ -7866,6 +8151,15 @@
       </c>
       <c r="BV32" t="b">
         <v>0</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="33">
@@ -8041,31 +8335,31 @@
         <v>3.186666666666667</v>
       </c>
       <c r="BF33" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BG33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ33" t="n">
         <v>4.366666666666666</v>
       </c>
       <c r="BK33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BL33" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BM33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BN33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO33" t="n">
         <v>180.9666666666667</v>
@@ -8094,6 +8388,15 @@
       </c>
       <c r="BV33" t="b">
         <v>0</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="34">
@@ -8269,13 +8572,13 @@
         <v>3.274193548387097</v>
       </c>
       <c r="BF34" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="BG34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI34" t="n">
         <v>0</v>
@@ -8284,16 +8587,16 @@
         <v>4.193548387096774</v>
       </c>
       <c r="BK34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BL34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM34" t="n">
         <v>4</v>
       </c>
       <c r="BN34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO34" t="n">
         <v>214.3225806451613</v>
@@ -8322,6 +8625,15 @@
       </c>
       <c r="BV34" t="b">
         <v>0</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="35">
@@ -8497,13 +8809,13 @@
         <v>2.516129032258065</v>
       </c>
       <c r="BF35" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BG35" t="n">
         <v>0</v>
       </c>
       <c r="BH35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI35" t="n">
         <v>0</v>
@@ -8512,13 +8824,13 @@
         <v>3.451612903225806</v>
       </c>
       <c r="BK35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BL35" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BM35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN35" t="n">
         <v>1</v>
@@ -8550,6 +8862,15 @@
       </c>
       <c r="BV35" t="b">
         <v>0</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY35" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="36">
@@ -8725,31 +9046,31 @@
         <v>6.843333333333333</v>
       </c>
       <c r="BF36" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="BG36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BJ36" t="n">
         <v>4.8</v>
       </c>
       <c r="BK36" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BL36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN36" t="n">
         <v>5</v>
-      </c>
-      <c r="BM36" t="n">
-        <v>5</v>
-      </c>
-      <c r="BN36" t="n">
-        <v>1</v>
       </c>
       <c r="BO36" t="n">
         <v>203.5</v>
@@ -8778,6 +9099,15 @@
       </c>
       <c r="BV36" t="b">
         <v>0</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="37">
@@ -8953,22 +9283,22 @@
         <v>3.31</v>
       </c>
       <c r="BF37" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="BG37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ37" t="n">
         <v>4.1</v>
       </c>
       <c r="BK37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BL37" t="n">
         <v>5</v>
@@ -8977,7 +9307,7 @@
         <v>4</v>
       </c>
       <c r="BN37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO37" t="n">
         <v>192.5333333333333</v>
@@ -9006,6 +9336,15 @@
       </c>
       <c r="BV37" t="b">
         <v>0</v>
+      </c>
+      <c r="BW37" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX37" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY37" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="38">
@@ -9181,16 +9520,16 @@
         <v>3.119354838709678</v>
       </c>
       <c r="BF38" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BG38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH38" t="n">
         <v>0</v>
       </c>
       <c r="BI38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ38" t="n">
         <v>4.193548387096774</v>
@@ -9199,13 +9538,13 @@
         <v>20</v>
       </c>
       <c r="BL38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BM38" t="n">
         <v>4</v>
       </c>
       <c r="BN38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BO38" t="n">
         <v>209.9677419354839</v>
@@ -9234,6 +9573,15 @@
       </c>
       <c r="BV38" t="b">
         <v>0</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY38" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="39">
@@ -9409,31 +9757,31 @@
         <v>2.961290322580645</v>
       </c>
       <c r="BF39" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BG39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ39" t="n">
         <v>3</v>
       </c>
       <c r="BK39" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BL39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM39" t="n">
         <v>2</v>
       </c>
       <c r="BN39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO39" t="n">
         <v>195.3870967741935</v>
@@ -9462,6 +9810,15 @@
       </c>
       <c r="BV39" t="b">
         <v>0</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX39" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY39" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="40">
@@ -9637,31 +9994,31 @@
         <v>3.025806451612903</v>
       </c>
       <c r="BF40" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BG40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH40" t="n">
         <v>0</v>
       </c>
       <c r="BI40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ40" t="n">
         <v>2.935483870967742</v>
       </c>
       <c r="BK40" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BL40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BM40" t="n">
         <v>2</v>
       </c>
       <c r="BN40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO40" t="n">
         <v>228.258064516129</v>
@@ -9690,6 +10047,15 @@
       </c>
       <c r="BV40" t="b">
         <v>0</v>
+      </c>
+      <c r="BW40" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX40" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY40" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="41">
@@ -9865,13 +10231,13 @@
         <v>2.403225806451613</v>
       </c>
       <c r="BF41" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BG41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI41" t="n">
         <v>0</v>
@@ -9880,16 +10246,16 @@
         <v>3.451612903225806</v>
       </c>
       <c r="BK41" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BL41" t="n">
         <v>5</v>
       </c>
       <c r="BM41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BN41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO41" t="n">
         <v>199.6774193548387</v>
@@ -9918,6 +10284,15 @@
       </c>
       <c r="BV41" t="b">
         <v>0</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX41" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY41" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="42">
@@ -10093,31 +10468,31 @@
         <v>2.586666666666667</v>
       </c>
       <c r="BF42" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BG42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ42" t="n">
         <v>2.4</v>
       </c>
       <c r="BK42" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BL42" t="n">
         <v>2</v>
       </c>
       <c r="BM42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BN42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO42" t="n">
         <v>217.1333333333333</v>
@@ -10146,6 +10521,15 @@
       </c>
       <c r="BV42" t="b">
         <v>0</v>
+      </c>
+      <c r="BW42" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY42" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="43">
@@ -10321,16 +10705,16 @@
         <v>5.760000000000001</v>
       </c>
       <c r="BF43" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BG43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ43" t="n">
         <v>4.7</v>
@@ -10339,13 +10723,13 @@
         <v>20</v>
       </c>
       <c r="BL43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BM43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO43" t="n">
         <v>164.6666666666667</v>
@@ -10374,6 +10758,15 @@
       </c>
       <c r="BV43" t="b">
         <v>0</v>
+      </c>
+      <c r="BW43" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX43" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="44">
@@ -10564,13 +10957,13 @@
         <v>1.870967741935484</v>
       </c>
       <c r="BK44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BL44" t="n">
         <v>3</v>
       </c>
       <c r="BM44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN44" t="n">
         <v>0</v>
@@ -10602,6 +10995,15 @@
       </c>
       <c r="BV44" t="b">
         <v>0</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY44" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="45">
@@ -10777,31 +11179,31 @@
         <v>4.151612903225806</v>
       </c>
       <c r="BF45" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BG45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ45" t="n">
         <v>4</v>
       </c>
       <c r="BK45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BL45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BM45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN45" t="n">
         <v>3</v>
-      </c>
-      <c r="BN45" t="n">
-        <v>1</v>
       </c>
       <c r="BO45" t="n">
         <v>170.7096774193548</v>
@@ -10830,6 +11232,15 @@
       </c>
       <c r="BV45" t="b">
         <v>0</v>
+      </c>
+      <c r="BW45" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX45" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY45" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="46">
@@ -11005,16 +11416,16 @@
         <v>2.39</v>
       </c>
       <c r="BF46" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BG46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH46" t="n">
         <v>0</v>
       </c>
       <c r="BI46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ46" t="n">
         <v>2.766666666666667</v>
@@ -11023,13 +11434,13 @@
         <v>23</v>
       </c>
       <c r="BL46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BM46" t="n">
         <v>1</v>
       </c>
       <c r="BN46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO46" t="n">
         <v>240.4666666666667</v>
@@ -11058,6 +11469,15 @@
       </c>
       <c r="BV46" t="b">
         <v>0</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX46" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY46" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="47">
@@ -11233,13 +11653,13 @@
         <v>2.523333333333333</v>
       </c>
       <c r="BF47" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BG47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI47" t="n">
         <v>0</v>
@@ -11248,16 +11668,16 @@
         <v>2.866666666666667</v>
       </c>
       <c r="BK47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BL47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BM47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO47" t="n">
         <v>177.5</v>
@@ -11286,6 +11706,15 @@
       </c>
       <c r="BV47" t="b">
         <v>0</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="48">
@@ -11461,31 +11890,31 @@
         <v>3.551612903225806</v>
       </c>
       <c r="BF48" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="BG48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH48" t="n">
         <v>0</v>
       </c>
       <c r="BI48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ48" t="n">
         <v>3.967741935483871</v>
       </c>
       <c r="BK48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BL48" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BM48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BN48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO48" t="n">
         <v>220.8709677419355</v>
@@ -11514,6 +11943,15 @@
       </c>
       <c r="BV48" t="b">
         <v>0</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY48" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
     <row r="49">
@@ -11689,31 +12127,31 @@
         <v>4.458064516129032</v>
       </c>
       <c r="BF49" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="BG49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH49" t="n">
         <v>0</v>
       </c>
       <c r="BI49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ49" t="n">
         <v>3.903225806451613</v>
       </c>
       <c r="BK49" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BL49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BM49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO49" t="n">
         <v>188.6774193548387</v>
@@ -11742,6 +12180,15 @@
       </c>
       <c r="BV49" t="b">
         <v>0</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>177</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>42.0751</v>
+      </c>
+      <c r="BY49" t="n">
+        <v>-72.0334</v>
       </c>
     </row>
   </sheetData>
